--- a/src/Input_Files/cultures/cultures.xlsx
+++ b/src/Input_Files/cultures/cultures.xlsx
@@ -1,104 +1,123 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="17430" yWindow="2895" windowWidth="20730" windowHeight="11385"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cultures" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
+    <t>RGB</t>
+  </si>
+  <si>
     <t>Culture</t>
   </si>
   <si>
-    <t>RGB</t>
+    <t>(150, 120, 120)</t>
   </si>
   <si>
     <t>japanese</t>
   </si>
   <si>
-    <t>(150, 120, 120)</t>
+    <t>(100, 120, 120)</t>
   </si>
   <si>
     <t>ainu</t>
   </si>
   <si>
-    <t>(100, 120, 120)</t>
+    <t>(44, 76, 214)</t>
   </si>
   <si>
     <t>french</t>
   </si>
   <si>
-    <t>(44, 76, 214)</t>
+    <t>(153, 0, 51)</t>
   </si>
   <si>
     <t>burgundian</t>
   </si>
   <si>
-    <t>(153, 0, 51)</t>
+    <t>(204, 110, 59)</t>
   </si>
   <si>
     <t>occitan</t>
   </si>
   <si>
-    <t>(204, 110, 59)</t>
+    <t>(164, 181, 255)</t>
   </si>
   <si>
     <t>breton</t>
   </si>
   <si>
-    <t>(164, 181, 255)</t>
+    <t>(196, 189, 11)</t>
   </si>
   <si>
     <t>flemish</t>
   </si>
   <si>
-    <t>(196, 189, 11)</t>
+    <t>(196, 11, 189)</t>
   </si>
   <si>
     <t>franconian</t>
   </si>
   <si>
-    <t>(196, 11, 189)</t>
-  </si>
-  <si>
     <t>(204, 51, 51)</t>
   </si>
   <si>
+    <t>english</t>
+  </si>
+  <si>
     <t>(204, 76, 40)</t>
   </si>
   <si>
+    <t>scots</t>
+  </si>
+  <si>
     <t>(210, 150, 255)</t>
   </si>
   <si>
+    <t>norwegian</t>
+  </si>
+  <si>
     <t>(108, 73, 183)</t>
   </si>
   <si>
+    <t>cornish</t>
+  </si>
+  <si>
     <t>(82, 73, 183)</t>
   </si>
   <si>
+    <t>welsh</t>
+  </si>
+  <si>
     <t>(14, 145, 145)</t>
   </si>
   <si>
+    <t>gaelic</t>
+  </si>
+  <si>
     <t>(21, 155, 99)</t>
   </si>
   <si>
+    <t>irish</t>
+  </si>
+  <si>
     <t>(51, 185, 69)</t>
   </si>
   <si>
+    <t>hiberno_norman</t>
+  </si>
+  <si>
     <t>(81, 114, 255)</t>
   </si>
   <si>
@@ -129,27 +148,6 @@
     <t>norman</t>
   </si>
   <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>norwegian</t>
-  </si>
-  <si>
-    <t>cornish</t>
-  </si>
-  <si>
-    <t>welsh</t>
-  </si>
-  <si>
-    <t>gaelic</t>
-  </si>
-  <si>
-    <t>irish</t>
-  </si>
-  <si>
-    <t>hiberno_norman</t>
-  </si>
-  <si>
     <t>(246, 158, 156)</t>
   </si>
   <si>
@@ -270,9 +268,6 @@
     <t>friulian</t>
   </si>
   <si>
-    <t>scots</t>
-  </si>
-  <si>
     <t>(26, 153, 26)</t>
   </si>
   <si>
@@ -387,7 +382,7 @@
     <t>afghan</t>
   </si>
   <si>
-    <t>(117, 181, 118)</t>
+    <t>(182, 229, 149)</t>
   </si>
   <si>
     <t>galician</t>
@@ -399,37 +394,37 @@
     <t>asturleonese</t>
   </si>
   <si>
+    <t>(206, 161, 78)</t>
+  </si>
+  <si>
+    <t>castilian</t>
+  </si>
+  <si>
     <t>(192, 64, 21)</t>
   </si>
   <si>
-    <t>castilian</t>
-  </si>
-  <si>
-    <t>(206, 161, 78)</t>
-  </si>
-  <si>
     <t>aragonese</t>
   </si>
   <si>
+    <t>(255, 231, 17)</t>
+  </si>
+  <si>
     <t>catalan</t>
   </si>
   <si>
-    <t>(255, 231, 17)</t>
-  </si>
-  <si>
     <t>(255, 127, 35)</t>
   </si>
   <si>
     <t>valencian</t>
   </si>
   <si>
-    <t>(150, 105, 21)</t>
+    <t>(79, 158, 71)</t>
   </si>
   <si>
     <t>andaluza</t>
   </si>
   <si>
-    <t>(117, 136, 159)</t>
+    <t>(193, 114, 143)</t>
   </si>
   <si>
     <t>andalusi</t>
@@ -482,62 +477,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -594,15 +544,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -612,44 +559,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -682,9 +629,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -723,142 +670,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -867,7 +838,7 @@
   <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,489 +849,489 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="A47" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="A52" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+      <c r="A54" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="A55" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+      <c r="A56" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="A58" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+      <c r="A60" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="A61" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1398,10 +1369,10 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
         <v>131</v>
-      </c>
-      <c r="B66" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1438,15 +1409,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/Input_Files/cultures/cultures.xlsx
+++ b/src/Input_Files/cultures/cultures.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\cultures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1806D568-6DEC-4508-A49E-8A6B12520B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="8190" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cultures" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>RGB</t>
   </si>
@@ -68,54 +74,6 @@
   </si>
   <si>
     <t>franconian</t>
-  </si>
-  <si>
-    <t>(204, 51, 51)</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>(204, 76, 40)</t>
-  </si>
-  <si>
-    <t>scots</t>
-  </si>
-  <si>
-    <t>(210, 150, 255)</t>
-  </si>
-  <si>
-    <t>norwegian</t>
-  </si>
-  <si>
-    <t>(108, 73, 183)</t>
-  </si>
-  <si>
-    <t>cornish</t>
-  </si>
-  <si>
-    <t>(82, 73, 183)</t>
-  </si>
-  <si>
-    <t>welsh</t>
-  </si>
-  <si>
-    <t>(14, 145, 145)</t>
-  </si>
-  <si>
-    <t>gaelic</t>
-  </si>
-  <si>
-    <t>(21, 155, 99)</t>
-  </si>
-  <si>
-    <t>irish</t>
-  </si>
-  <si>
-    <t>(51, 185, 69)</t>
-  </si>
-  <si>
-    <t>hiberno_norman</t>
   </si>
   <si>
     <t>(81, 114, 255)</t>
@@ -439,7 +397,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -477,15 +435,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standaard 2" xfId="1"/>
+    <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -544,12 +501,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -591,7 +551,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,9 +584,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,6 +636,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -834,14 +828,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -920,10 +914,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -960,226 +954,226 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1341,70 +1335,6 @@
       </c>
       <c r="B62" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1343,7 @@
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
+  <conditionalFormatting sqref="A54">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
